--- a/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_rf_st.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_rf_st.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>351.267739200592</v>
+        <v>161.4224869728088</v>
       </c>
       <c r="C2">
-        <v>220.6141344246118</v>
+        <v>55.76770927508439</v>
       </c>
       <c r="D2">
-        <v>10.50038933753967</v>
+        <v>2.089466094970703</v>
       </c>
       <c r="E2">
-        <v>8.298290434711648</v>
+        <v>3.141579706245607</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>708.4277523517609</v>
+        <v>433.2628062725067</v>
       </c>
       <c r="C3">
-        <v>450.2925379089555</v>
+        <v>137.5478104021661</v>
       </c>
       <c r="D3">
-        <v>10.71101899147034</v>
+        <v>4.608819103240966</v>
       </c>
       <c r="E3">
-        <v>8.407673799768887</v>
+        <v>1.948374591872216</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1974.848343610764</v>
+        <v>891.3809002876282</v>
       </c>
       <c r="C4">
-        <v>231.7560784835871</v>
+        <v>145.7360696628547</v>
       </c>
       <c r="D4">
-        <v>18.87487435340881</v>
+        <v>7.821775579452515</v>
       </c>
       <c r="E4">
-        <v>0.2209606759949242</v>
+        <v>0.3344061402249211</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>818.145610332489</v>
+        <v>396.2700290679932</v>
       </c>
       <c r="C5">
-        <v>7.285738686404929</v>
+        <v>5.397329041317824</v>
       </c>
       <c r="D5">
-        <v>16.64632983207703</v>
+        <v>6.274562168121338</v>
       </c>
       <c r="E5">
-        <v>1.649249979559249</v>
+        <v>0.6201628296824676</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1581.753210353851</v>
+        <v>788.7560674190521</v>
       </c>
       <c r="C6">
-        <v>15.06785775665051</v>
+        <v>5.878420357202714</v>
       </c>
       <c r="D6">
-        <v>17.87273473739624</v>
+        <v>7.487487220764161</v>
       </c>
       <c r="E6">
-        <v>0.9557608706284004</v>
+        <v>0.4733867440628987</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3157.509225940704</v>
+        <v>1577.682591295242</v>
       </c>
       <c r="C7">
-        <v>16.75132167528406</v>
+        <v>12.35958354394973</v>
       </c>
       <c r="D7">
-        <v>18.29256801605225</v>
+        <v>7.810253477096557</v>
       </c>
       <c r="E7">
-        <v>1.025620900053031</v>
+        <v>0.5289247424152462</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1069.887732028961</v>
+        <v>534.3931314945221</v>
       </c>
       <c r="C8">
-        <v>7.252225979599118</v>
+        <v>7.24980997792151</v>
       </c>
       <c r="D8">
-        <v>18.97515439987183</v>
+        <v>7.1660080909729</v>
       </c>
       <c r="E8">
-        <v>0.6840056441181404</v>
+        <v>0.3832394366663081</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2115.973094940186</v>
+        <v>1043.80263209343</v>
       </c>
       <c r="C9">
-        <v>14.37717893883776</v>
+        <v>6.852773957842119</v>
       </c>
       <c r="D9">
-        <v>18.61286592483521</v>
+        <v>7.343221998214721</v>
       </c>
       <c r="E9">
-        <v>1.326650982223476</v>
+        <v>0.6997019563286839</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4119.755389261246</v>
+        <v>2071.147108125687</v>
       </c>
       <c r="C10">
-        <v>62.10630157836419</v>
+        <v>16.80539605895351</v>
       </c>
       <c r="D10">
-        <v>19.11411075592041</v>
+        <v>8.805324649810791</v>
       </c>
       <c r="E10">
-        <v>0.4306441603458357</v>
+        <v>0.3610204129538772</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>767.700561618805</v>
+        <v>384.4225076198578</v>
       </c>
       <c r="C11">
-        <v>7.657016865683471</v>
+        <v>5.232459231192113</v>
       </c>
       <c r="D11">
-        <v>17.69247989654541</v>
+        <v>7.629725456237793</v>
       </c>
       <c r="E11">
-        <v>1.134997791399647</v>
+        <v>0.6172351791407384</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1460.40402007103</v>
+        <v>747.8065921783448</v>
       </c>
       <c r="C12">
-        <v>38.88835860818111</v>
+        <v>16.89020334314273</v>
       </c>
       <c r="D12">
-        <v>18.31873769760132</v>
+        <v>8.409038209915161</v>
       </c>
       <c r="E12">
-        <v>0.5236424042892978</v>
+        <v>0.2801360180783285</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2913.302376556397</v>
+        <v>1481.346619939804</v>
       </c>
       <c r="C13">
-        <v>35.1350804896553</v>
+        <v>26.00648650946575</v>
       </c>
       <c r="D13">
-        <v>19.24524617195129</v>
+        <v>7.798697423934937</v>
       </c>
       <c r="E13">
-        <v>1.489490584846685</v>
+        <v>0.9735022665631949</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1099.242583751678</v>
+        <v>552.8581718921662</v>
       </c>
       <c r="C14">
-        <v>11.78543740409244</v>
+        <v>16.16228369270926</v>
       </c>
       <c r="D14">
-        <v>18.29380702972412</v>
+        <v>8.011240863800049</v>
       </c>
       <c r="E14">
-        <v>2.960541575142013</v>
+        <v>0.3569548795134374</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2187.739064073563</v>
+        <v>1088.408327770233</v>
       </c>
       <c r="C15">
-        <v>43.49554325489711</v>
+        <v>17.43759374865452</v>
       </c>
       <c r="D15">
-        <v>19.25510301589966</v>
+        <v>6.977490282058715</v>
       </c>
       <c r="E15">
-        <v>0.5761685519584174</v>
+        <v>1.352000596809704</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4322.399535655975</v>
+        <v>2162.664258575439</v>
       </c>
       <c r="C16">
-        <v>76.62580775922768</v>
+        <v>43.81784823854721</v>
       </c>
       <c r="D16">
-        <v>19.96243963241577</v>
+        <v>8.87287130355835</v>
       </c>
       <c r="E16">
-        <v>0.4025254337420325</v>
+        <v>0.4161040172149783</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1447.689214944839</v>
+        <v>720.4558026313782</v>
       </c>
       <c r="C17">
-        <v>27.23354242411666</v>
+        <v>15.71153951083405</v>
       </c>
       <c r="D17">
-        <v>19.58354744911194</v>
+        <v>7.194146823883057</v>
       </c>
       <c r="E17">
-        <v>0.1781394304997751</v>
+        <v>0.4238341641824623</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2808.887717819214</v>
+        <v>1416.47435464859</v>
       </c>
       <c r="C18">
-        <v>54.88473322000691</v>
+        <v>17.7788358890005</v>
       </c>
       <c r="D18">
-        <v>19.6879132270813</v>
+        <v>7.840663909912109</v>
       </c>
       <c r="E18">
-        <v>0.4742490872586455</v>
+        <v>0.556430291069796</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5463.980652809143</v>
+        <v>2858.879571056366</v>
       </c>
       <c r="C19">
-        <v>103.2264715713589</v>
+        <v>38.82474564596157</v>
       </c>
       <c r="D19">
-        <v>19.86793637275696</v>
+        <v>8.501192188262939</v>
       </c>
       <c r="E19">
-        <v>0.2930187271893233</v>
+        <v>0.5759237248439967</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>769.5756204605102</v>
+        <v>398.8124918460846</v>
       </c>
       <c r="C20">
-        <v>7.064575270136166</v>
+        <v>5.251522608486193</v>
       </c>
       <c r="D20">
-        <v>19.2399224281311</v>
+        <v>7.253786945343018</v>
       </c>
       <c r="E20">
-        <v>0.5170646775741479</v>
+        <v>0.4704588869595814</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1501.205947685242</v>
+        <v>792.2914300918579</v>
       </c>
       <c r="C21">
-        <v>45.04451735173278</v>
+        <v>19.7299568157689</v>
       </c>
       <c r="D21">
-        <v>19.33722338676453</v>
+        <v>7.945536661148071</v>
       </c>
       <c r="E21">
-        <v>1.049197906253565</v>
+        <v>0.5291216659281549</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2861.460562562942</v>
+        <v>1546.652203798294</v>
       </c>
       <c r="C22">
-        <v>40.93868311763343</v>
+        <v>28.18179536927087</v>
       </c>
       <c r="D22">
-        <v>20.19342880249024</v>
+        <v>8.360516834259034</v>
       </c>
       <c r="E22">
-        <v>0.6574326076220084</v>
+        <v>0.5502584810651959</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1065.216705703735</v>
+        <v>577.9067765235901</v>
       </c>
       <c r="C23">
-        <v>21.89215285412947</v>
+        <v>12.33066342569965</v>
       </c>
       <c r="D23">
-        <v>19.06212348937988</v>
+        <v>7.272259044647217</v>
       </c>
       <c r="E23">
-        <v>1.434017303245027</v>
+        <v>0.5479504410803239</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2165.296545791626</v>
+        <v>1138.185612773895</v>
       </c>
       <c r="C24">
-        <v>40.69700098585913</v>
+        <v>21.2134232392483</v>
       </c>
       <c r="D24">
-        <v>19.48552732467651</v>
+        <v>7.922602272033691</v>
       </c>
       <c r="E24">
-        <v>0.7761126146752725</v>
+        <v>0.4284979821316703</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4247.84482626915</v>
+        <v>2263.575600004196</v>
       </c>
       <c r="C25">
-        <v>77.16372106364521</v>
+        <v>38.76192520549186</v>
       </c>
       <c r="D25">
-        <v>21.15188112258911</v>
+        <v>8.492589855194092</v>
       </c>
       <c r="E25">
-        <v>0.9345550359869881</v>
+        <v>0.4436005557169488</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1415.901725339889</v>
+        <v>757.2915437221527</v>
       </c>
       <c r="C26">
-        <v>29.08790949700118</v>
+        <v>13.9832792791435</v>
       </c>
       <c r="D26">
-        <v>18.89596571922302</v>
+        <v>8.199797248840332</v>
       </c>
       <c r="E26">
-        <v>0.9708064034894864</v>
+        <v>0.141052092428875</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2783.409873580933</v>
+        <v>1475.197072792053</v>
       </c>
       <c r="C27">
-        <v>33.08911467959984</v>
+        <v>22.39052006420526</v>
       </c>
       <c r="D27">
-        <v>23.2939576625824</v>
+        <v>7.467642593383789</v>
       </c>
       <c r="E27">
-        <v>3.668292332522649</v>
+        <v>0.9229999410580189</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4117.360242843628</v>
+        <v>1999.117674779892</v>
       </c>
       <c r="C28">
-        <v>442.5201986766495</v>
+        <v>296.1709115229847</v>
       </c>
       <c r="D28">
-        <v>9.482517528533936</v>
+        <v>2.397410678863525</v>
       </c>
       <c r="E28">
-        <v>3.105135768957588</v>
+        <v>1.671764377982837</v>
       </c>
       <c r="F28">
         <v>30</v>
